--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="108">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -346,11 +346,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -375,21 +375,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,6 +412,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -411,9 +434,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,30 +482,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -459,38 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,25 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,31 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,13 +652,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,37 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,17 +720,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +763,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -765,26 +792,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,111 +817,93 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,58 +912,58 @@
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:BA21"/>
+      <selection activeCell="A4" sqref="A1:BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1803,7 +1803,9 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
@@ -1962,7 +1964,9 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2125,9 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2280,7 +2286,9 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2439,7 +2447,9 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2598,7 +2608,9 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
@@ -2757,7 +2769,9 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +2930,9 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
@@ -3075,7 +3091,9 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
@@ -3234,7 +3252,9 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
@@ -3393,7 +3413,9 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
@@ -3552,7 +3574,9 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>96</v>
       </c>
@@ -3711,7 +3735,9 @@
       </c>
     </row>
     <row r="16" spans="1:53">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" t="s">
         <v>100</v>
       </c>
@@ -3869,7 +3895,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:53">
+    <row r="17" spans="1:53">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
@@ -4027,7 +4056,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:53">
+    <row r="18" spans="1:53">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
@@ -4185,7 +4217,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:53">
+    <row r="19" spans="1:53">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>105</v>
       </c>
@@ -4343,7 +4378,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:53">
+    <row r="20" spans="1:53">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>106</v>
       </c>
@@ -4501,7 +4539,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:53">
+    <row r="21" spans="1:53">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>102</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="11148"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="106">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -287,9 +287,6 @@
     <t>Budget_RES_U_type Coupon_PayLater_US</t>
   </si>
   <si>
-    <t>EWR</t>
-  </si>
-  <si>
     <t>UUZZ011</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
   </si>
   <si>
     <t>Budget_RES_G_typeCoupon__SMSCheckbox_IATA_PayLater_US</t>
-  </si>
-  <si>
-    <t>GUZZ007</t>
   </si>
   <si>
     <t>Budget_RES _Digital wallet Uplift _Direct_modify flow_US</t>
@@ -346,11 +340,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -374,7 +368,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -382,23 +376,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,22 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,22 +422,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,22 +438,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -490,7 +445,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,6 +484,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +520,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,19 +550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,49 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,49 +682,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +718,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,36 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,6 +755,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -817,15 +772,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,136 +831,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,7 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1311,12 +1305,14 @@
   <dimension ref="A1:BA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:BA21"/>
+      <selection activeCell="B24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="64.4444444444444" customWidth="1"/>
+    <col min="33" max="33" width="9.22222222222222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -1642,7 +1638,7 @@
       </c>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1803,7 +1799,7 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1964,7 +1960,7 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2125,7 +2121,7 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2286,7 +2282,7 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2447,7 +2443,7 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2608,7 +2604,7 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2769,7 +2765,7 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2930,7 +2926,7 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2946,28 +2942,28 @@
         <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>56</v>
@@ -3091,11 +3087,11 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>55</v>
@@ -3252,11 +3248,11 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>55</v>
@@ -3413,11 +3409,11 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>55</v>
@@ -3441,7 +3437,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>56</v>
@@ -3574,11 +3570,11 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -3596,25 +3592,25 @@
         <v>56</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>56</v>
@@ -3735,11 +3731,11 @@
       </c>
     </row>
     <row r="16" spans="1:53">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -3751,7 +3747,7 @@
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>56</v>
@@ -3896,11 +3892,11 @@
       </c>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -4057,11 +4053,11 @@
       </c>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -4079,13 +4075,13 @@
         <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>56</v>
@@ -4094,7 +4090,7 @@
         <v>56</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>56</v>
@@ -4218,11 +4214,11 @@
       </c>
     </row>
     <row r="19" spans="1:53">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>55</v>
@@ -4379,11 +4375,11 @@
       </c>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>55</v>
@@ -4540,11 +4536,11 @@
       </c>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -4881,7 +4877,7 @@
     <row r="2" spans="1:53">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_migration_updated 14 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514275A8-73AE-9944-8ED0-831755267EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67F03F-22CA-064D-A1A2-D4DF59CC60D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="110">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -329,24 +329,12 @@
     <t>Budget_Profile_RES_Incognito_PayLater_US</t>
   </si>
   <si>
-    <t>EWR,ORD,PHL,JFK,SFO,BDL,PHK</t>
-  </si>
-  <si>
     <t>Airline</t>
   </si>
   <si>
     <t>FlightNumber</t>
   </si>
   <si>
-    <t>ORD,PHL,JFK,SFO,BDL,PHK,EWR</t>
-  </si>
-  <si>
-    <t>PHL,JFK,SFO,BDL,PHK,EWR,ORD</t>
-  </si>
-  <si>
-    <t>SFO,BDL,PHK,EWR,ORD,PHL,JFK</t>
-  </si>
-  <si>
     <t>06/23/2023</t>
   </si>
   <si>
@@ -354,6 +342,15 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -363,12 +360,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,6 +393,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,23 +424,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AT28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -723,7 +738,7 @@
     <col min="51" max="51" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,11 +748,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -884,10 +899,10 @@
         <v>52</v>
       </c>
       <c r="BB1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
@@ -906,8 +921,8 @@
       <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>102</v>
+      <c r="F2" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
@@ -1058,7 +1073,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
@@ -1073,8 +1088,8 @@
       <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>105</v>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>56</v>
@@ -1086,7 +1101,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -1209,7 +1224,7 @@
         <v>56</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>56</v>
@@ -1240,8 +1255,8 @@
       <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
@@ -1253,7 +1268,7 @@
         <v>56</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -1407,8 +1422,8 @@
       <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>102</v>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
@@ -1420,7 +1435,7 @@
         <v>56</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
         <v>56</v>
@@ -1574,8 +1589,8 @@
       <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>107</v>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>74</v>
@@ -1741,8 +1756,8 @@
       <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>107</v>
+      <c r="F7" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
@@ -1754,7 +1769,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -1908,8 +1923,8 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>107</v>
+      <c r="F8" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -2075,8 +2090,8 @@
       <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>107</v>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>83</v>
@@ -2088,7 +2103,7 @@
         <v>56</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
@@ -2242,8 +2257,8 @@
       <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>107</v>
+      <c r="F10" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
@@ -2255,7 +2270,7 @@
         <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
@@ -2394,7 +2409,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
@@ -2409,8 +2424,8 @@
       <c r="E11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>107</v>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -2561,7 +2576,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B12" t="s">
@@ -2576,8 +2591,8 @@
       <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>107</v>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -2589,7 +2604,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -2728,7 +2743,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
@@ -2743,8 +2758,8 @@
       <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>107</v>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -2895,7 +2910,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
@@ -2910,8 +2925,8 @@
       <c r="E14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>107</v>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -2923,7 +2938,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
         <v>56</v>
@@ -3062,7 +3077,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
@@ -3077,8 +3092,8 @@
       <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>107</v>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -3229,7 +3244,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3244,7 +3259,7 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G16" t="s">
@@ -3389,14 +3404,14 @@
         <v>56</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BC16">
         <v>2323</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
@@ -3411,8 +3426,8 @@
       <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>107</v>
+      <c r="F17" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -3563,7 +3578,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
@@ -3578,8 +3593,8 @@
       <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>107</v>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -3591,7 +3606,7 @@
         <v>56</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -3730,7 +3745,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
@@ -3745,8 +3760,8 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>107</v>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
@@ -3758,7 +3773,7 @@
         <v>56</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -3881,7 +3896,7 @@
         <v>56</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AZ19" t="s">
         <v>56</v>
@@ -3897,11 +3912,11 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -3912,8 +3927,8 @@
       <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>107</v>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -3925,7 +3940,7 @@
         <v>56</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
         <v>56</v>
@@ -4048,7 +4063,7 @@
         <v>56</v>
       </c>
       <c r="AY20" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AZ20" t="s">
         <v>56</v>
@@ -4064,7 +4079,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
@@ -4079,8 +4094,8 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>107</v>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_migration_updated 14 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67F03F-22CA-064D-A1A2-D4DF59CC60D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70ABC7-1601-014D-9734-5425C5D074A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="122">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -351,6 +351,42 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>L4M0A4</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Budget_RES_Inbound_MultiCurrency_IATA_Cancellation_PayNow_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Outbound_USAA_Validate_CorpBooking_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Modify/cancel flow_Step1_to_Step4_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Domestic_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Incognito_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_KeyDropLocation_M_typeCoupon_PayLater_CA</t>
+  </si>
+  <si>
+    <t>YYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFO </t>
   </si>
 </sst>
 </file>
@@ -360,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +437,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -419,12 +463,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,8 +494,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AT28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,9 +956,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1073,9 +1121,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -1240,9 +1286,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1407,9 +1451,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1574,9 +1616,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1741,9 +1781,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1908,9 +1946,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2075,9 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2242,9 +2276,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2409,9 +2441,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2576,9 +2606,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -2743,9 +2771,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -2910,9 +2936,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3077,9 +3101,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3244,9 +3266,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3411,9 +3431,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3578,9 +3596,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3745,9 +3761,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -3912,9 +3926,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4079,9 +4091,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4245,7 +4255,1012 @@
         <v>56</v>
       </c>
     </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W22" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X22" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V23" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG23" s="6">
+        <v>38298026</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V24" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V25" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V26" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V27" s="8">
+        <v>9840000000</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AN22" r:id="rId1" display="mailto:test@munters.com" xr:uid="{43FBD047-67B5-4244-8EF0-E4FA0747AE15}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_migration_updated 14 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70ABC7-1601-014D-9734-5425C5D074A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FACE99D-FD94-F54B-867B-02C39753C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="122">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -393,8 +393,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -471,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,6 +497,10 @@
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,14 +779,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO24" sqref="A1:BC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.1640625"/>
     <col min="49" max="49" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15.5" bestFit="1" customWidth="1"/>
@@ -852,7 +860,7 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -1017,7 +1025,7 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="10">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
@@ -1182,7 +1190,7 @@
       <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="10">
         <v>9838234567</v>
       </c>
       <c r="W3" t="s">
@@ -1347,7 +1355,7 @@
       <c r="U4" t="s">
         <v>61</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="10">
         <v>9838234567</v>
       </c>
       <c r="W4" t="s">
@@ -1512,7 +1520,7 @@
       <c r="U5" t="s">
         <v>61</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="10">
         <v>9838234567</v>
       </c>
       <c r="W5" t="s">
@@ -1677,7 +1685,7 @@
       <c r="U6" t="s">
         <v>61</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="10">
         <v>9838234567</v>
       </c>
       <c r="W6" s="3">
@@ -1842,7 +1850,7 @@
       <c r="U7" t="s">
         <v>61</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="10">
         <v>9838234567</v>
       </c>
       <c r="W7" s="3">
@@ -2007,7 +2015,7 @@
       <c r="U8" t="s">
         <v>61</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="10">
         <v>9838234567</v>
       </c>
       <c r="W8" t="s">
@@ -2172,7 +2180,7 @@
       <c r="U9" t="s">
         <v>61</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="10">
         <v>9838234567</v>
       </c>
       <c r="W9" t="s">
@@ -2337,7 +2345,7 @@
       <c r="U10" t="s">
         <v>61</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="10">
         <v>9838234567</v>
       </c>
       <c r="W10" t="s">
@@ -2502,7 +2510,7 @@
       <c r="U11" t="s">
         <v>61</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="10">
         <v>9838234567</v>
       </c>
       <c r="W11" t="s">
@@ -2667,7 +2675,7 @@
       <c r="U12" t="s">
         <v>61</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="10">
         <v>9838234567</v>
       </c>
       <c r="W12" t="s">
@@ -2832,7 +2840,7 @@
       <c r="U13" t="s">
         <v>61</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="10">
         <v>9838234567</v>
       </c>
       <c r="W13" t="s">
@@ -2997,7 +3005,7 @@
       <c r="U14" t="s">
         <v>61</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="10">
         <v>9838234567</v>
       </c>
       <c r="W14" t="s">
@@ -3162,7 +3170,7 @@
       <c r="U15" t="s">
         <v>61</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="10">
         <v>9838234567</v>
       </c>
       <c r="W15" t="s">
@@ -3327,7 +3335,7 @@
       <c r="U16" t="s">
         <v>61</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="10">
         <v>9838234567</v>
       </c>
       <c r="W16" t="s">
@@ -3492,7 +3500,7 @@
       <c r="U17" t="s">
         <v>61</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="10">
         <v>9838234567</v>
       </c>
       <c r="W17" t="s">
@@ -3657,7 +3665,7 @@
       <c r="U18" t="s">
         <v>61</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="10">
         <v>9838234567</v>
       </c>
       <c r="W18" t="s">
@@ -3822,7 +3830,7 @@
       <c r="U19" t="s">
         <v>61</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="10">
         <v>9838234567</v>
       </c>
       <c r="W19" t="s">
@@ -3987,7 +3995,7 @@
       <c r="U20" t="s">
         <v>61</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="10">
         <v>9838234567</v>
       </c>
       <c r="W20" t="s">
@@ -4152,7 +4160,7 @@
       <c r="U21" t="s">
         <v>61</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="10">
         <v>9838234567</v>
       </c>
       <c r="W21" t="s">
@@ -4255,7 +4263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -4319,7 +4327,7 @@
       <c r="U22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="11">
         <v>9840000000</v>
       </c>
       <c r="W22" s="8">
@@ -4332,22 +4340,22 @@
         <v>75</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="AB22" s="6">
         <v>123</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="AE22" s="6" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>85</v>
@@ -4415,11 +4423,11 @@
       <c r="BA22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BB22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC22" s="6" t="s">
-        <v>56</v>
+      <c r="BB22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC22">
+        <v>2323</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
@@ -4486,7 +4494,7 @@
       <c r="U23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="11">
         <v>9840000000</v>
       </c>
       <c r="W23" s="6" t="s">
@@ -4609,7 +4617,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>92</v>
@@ -4653,7 +4661,7 @@
       <c r="U24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="11">
         <v>9840000000</v>
       </c>
       <c r="W24" s="6" t="s">
@@ -4776,7 +4784,7 @@
         <v>110</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>56</v>
@@ -4820,7 +4828,7 @@
       <c r="U25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="8">
+      <c r="V25" s="11">
         <v>9840000000</v>
       </c>
       <c r="W25" s="6" t="s">
@@ -4943,7 +4951,7 @@
         <v>110</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>56</v>
@@ -4987,7 +4995,7 @@
       <c r="U26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="11">
         <v>9840000000</v>
       </c>
       <c r="W26" s="6" t="s">
@@ -5154,7 +5162,7 @@
       <c r="U27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="11">
         <v>9840000000</v>
       </c>
       <c r="W27" s="6" t="s">

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_migration_updated 14 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FACE99D-FD94-F54B-867B-02C39753C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF1284-A861-DC49-98D8-F6A730ED4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="123">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t xml:space="preserve">SFO </t>
+  </si>
+  <si>
+    <t>Budget_RES_OneWay_USAA_PayLater_CA</t>
   </si>
 </sst>
 </file>
@@ -777,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO24" sqref="A1:BC27"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A1:BC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5262,6 +5265,340 @@
         <v>56</v>
       </c>
       <c r="BC27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W28" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X28" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG28" s="6">
+        <v>38298026</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V29" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>38298026</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC29" s="6" t="s">
         <v>56</v>
       </c>
     </row>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_migration_updated 14 march/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Downloads/web_framework_updated branch 16 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF1284-A861-DC49-98D8-F6A730ED4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638E9AA-7474-524D-9131-27D6D5303FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
-    <sheet name="Authenticated" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Authenticated" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="134">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -386,10 +387,43 @@
     <t>YYC</t>
   </si>
   <si>
-    <t xml:space="preserve">SFO </t>
-  </si>
-  <si>
     <t>Budget_RES_OneWay_USAA_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Costco_DigitalWallet_PayPal_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Inbound_MultiCurrency_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_BCD_CorpCust_insuranceCover_Validate_Paylater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_U_type Coupon_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_FlightInfo_DigitalWallet_PayPal_PayNow_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Misc_Verify_Underage_onStep1_FleetFliter_VehicleType_Seats_Mileage_Price_onStep2_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_EMEA90Days_ErrorMessage_Step1_Res widget_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_T_typeCoupon_CCOLocation_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Outbound_StrikeThroughCoupon_LocMandate_FlightInfo_Cancellation_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_G_typeCoupon__SMSCheckbox_IATA_PayLater_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES _Digital wallet Uplift _Direct_modify flow_CA</t>
+  </si>
+  <si>
+    <t>Budget_RES_Misc_Step1_2_Step4 _ErrorMsg_Validation_CA</t>
   </si>
 </sst>
 </file>
@@ -782,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:BC29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -967,7 +1001,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1132,7 +1168,9 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -1297,7 +1335,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1462,7 +1502,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1627,7 +1669,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1792,7 +1836,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1957,7 +2003,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2122,7 +2170,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2287,7 +2337,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2452,7 +2504,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2617,7 +2671,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -2782,7 +2838,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -2947,7 +3005,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3112,7 +3172,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3277,7 +3339,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3442,7 +3506,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3607,7 +3673,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3772,7 +3840,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -3937,7 +4007,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4102,7 +4174,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4266,1351 +4340,3680 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V22" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W22" s="8">
-        <v>342000000000000</v>
-      </c>
-      <c r="X22" s="6">
-        <v>1129</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>123</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC22">
-        <v>2323</v>
-      </c>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="V22"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V23" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG23" s="6">
-        <v>38298026</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC23" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="V23"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V24" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X24" s="6">
-        <v>1129</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB24" s="6">
-        <v>123</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE24" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC24" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="V24"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V25" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC25" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="V25"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V26" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC26" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="V26"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V27" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC27" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="V27"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V28" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W28" s="8">
-        <v>342000000000000</v>
-      </c>
-      <c r="X28" s="6">
-        <v>1129</v>
-      </c>
-      <c r="Y28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>123</v>
-      </c>
-      <c r="AC28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>38298026</v>
-      </c>
-      <c r="AH28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC28" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="V28"/>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V29" s="11">
-        <v>9840000000</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>38298026</v>
-      </c>
-      <c r="AH29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC29" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="V29"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AN22" r:id="rId1" display="mailto:test@munters.com" xr:uid="{43FBD047-67B5-4244-8EF0-E4FA0747AE15}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
+  <dimension ref="A1:BC23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="81.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>112000000000</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W6" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC6">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W7" s="8">
+        <v>342000000000000</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1129</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>123</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>38298026</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>38298026</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>112000000000</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" t="s">
+        <v>61</v>
+      </c>
+      <c r="V17" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG17">
+        <v>38298026</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC17">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" t="s">
+        <v>60</v>
+      </c>
+      <c r="U18" t="s">
+        <v>61</v>
+      </c>
+      <c r="V18" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20">
+        <v>1129</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20">
+        <v>123</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE20">
+        <v>99022</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U21" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W21" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21">
+        <v>1129</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB21">
+        <v>123</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21">
+        <v>99022</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" t="s">
+        <v>61</v>
+      </c>
+      <c r="V22" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W22" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AN6" r:id="rId1" display="mailto:test@munters.com" xr:uid="{7FC225C5-60E2-0F48-8E7E-93968FE95DD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Downloads/web_framework_updated branch 16 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638E9AA-7474-524D-9131-27D6D5303FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ECFAF-555A-D049-AECA-296FE5B9ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="134">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,9 +1001,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1168,9 +1166,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -1335,9 +1331,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1502,9 +1496,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1669,9 +1661,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1836,9 +1826,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -2003,9 +1991,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2170,9 +2156,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2337,9 +2321,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2504,9 +2486,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2671,10 +2651,8 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C12" t="s">
@@ -2838,9 +2816,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -3005,9 +2981,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3172,9 +3146,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3339,9 +3311,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3506,9 +3476,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3673,9 +3641,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3840,9 +3806,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -4007,9 +3971,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4174,9 +4136,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4381,12 +4341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
   <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4558,7 +4519,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4723,7 +4686,9 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
@@ -4888,7 +4853,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -5038,7 +5005,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5203,7 +5172,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
@@ -5368,7 +5339,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
@@ -5533,7 +5506,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5698,7 +5673,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -5863,7 +5840,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6028,7 +6007,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
@@ -6193,7 +6174,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
@@ -6351,14 +6334,16 @@
         <v>56</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC12" s="4" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="BC12" s="4">
+        <v>2323</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
@@ -6523,7 +6508,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -6688,7 +6675,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Downloads/web_framework_updated branch 16 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ECFAF-555A-D049-AECA-296FE5B9ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA850E59-A140-BB40-A82F-577AC3EF5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="134">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1168,9 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -1331,7 +1335,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1496,7 +1502,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1661,7 +1669,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1826,7 +1836,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1991,7 +2003,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2156,7 +2170,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2321,7 +2337,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2486,7 +2504,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2651,7 +2671,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2816,7 +2838,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -2981,7 +3005,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3146,7 +3172,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3311,7 +3339,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3476,7 +3506,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3641,7 +3673,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3806,7 +3840,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -3971,7 +4007,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4136,7 +4174,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4341,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
   <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4519,9 +4559,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4686,9 +4724,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
@@ -4853,9 +4889,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -5003,11 +5037,24 @@
       <c r="AX4" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="AY4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5172,9 +5219,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
@@ -5339,9 +5384,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
@@ -5506,9 +5549,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5673,9 +5714,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -5840,9 +5879,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6007,9 +6044,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
@@ -6174,9 +6209,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
@@ -6341,9 +6374,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
@@ -6508,9 +6539,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -6675,9 +6704,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Downloads/web_framework_updated branch 16 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA850E59-A140-BB40-A82F-577AC3EF5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B97CD1-AE5B-454D-9748-BB3A7D52A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="136">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Budget_RES_Misc_Step1_2_Step4 _ErrorMsg_Validation_CA</t>
+  </si>
+  <si>
+    <t>YQB</t>
+  </si>
+  <si>
+    <t>YUL</t>
   </si>
 </sst>
 </file>
@@ -816,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,9 +1007,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1168,9 +1172,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -1335,9 +1337,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1502,9 +1502,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1669,9 +1667,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1836,9 +1832,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -2003,9 +1997,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2170,9 +2162,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2337,9 +2327,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2504,9 +2492,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2671,9 +2657,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2838,9 +2822,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -3005,9 +2987,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3172,9 +3152,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3339,9 +3317,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3506,9 +3482,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3673,9 +3647,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3840,9 +3812,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -4007,9 +3977,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4174,9 +4142,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4379,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
-  <dimension ref="A1:BC23"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4559,7 +4525,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4724,7 +4692,9 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
@@ -4889,7 +4859,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -5054,7 +5026,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5219,7 +5193,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
@@ -5384,7 +5360,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
@@ -5542,14 +5520,16 @@
         <v>56</v>
       </c>
       <c r="BB7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="BC7" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5563,25 +5543,25 @@
         <v>56</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
+      <c r="H8" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>56</v>
+      <c r="J8" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>56</v>
@@ -5707,14 +5687,16 @@
         <v>56</v>
       </c>
       <c r="BB8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="BC8" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -5872,14 +5854,16 @@
         <v>56</v>
       </c>
       <c r="BB9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC9" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
+      </c>
+      <c r="BC9" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6036,15 +6020,17 @@
       <c r="BA10" t="s">
         <v>56</v>
       </c>
-      <c r="BB10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>56</v>
+      <c r="BB10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC10" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
@@ -6201,15 +6187,17 @@
       <c r="BA11" t="s">
         <v>56</v>
       </c>
-      <c r="BB11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC11" s="4" t="s">
-        <v>56</v>
+      <c r="BB11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC11" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
@@ -6374,7 +6362,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
@@ -6531,15 +6521,17 @@
       <c r="BA13" t="s">
         <v>56</v>
       </c>
-      <c r="BB13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>56</v>
+      <c r="BB13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC13" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -6696,15 +6688,17 @@
       <c r="BA14" t="s">
         <v>56</v>
       </c>
-      <c r="BB14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC14" s="4" t="s">
-        <v>56</v>
+      <c r="BB14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC14" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -6861,15 +6855,17 @@
       <c r="BA15" t="s">
         <v>56</v>
       </c>
-      <c r="BB15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>56</v>
+      <c r="BB15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC15" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>129</v>
       </c>
@@ -7026,15 +7022,17 @@
       <c r="BA16" t="s">
         <v>56</v>
       </c>
-      <c r="BB16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>56</v>
+      <c r="BB16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC16" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
@@ -7199,6 +7197,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>117</v>
       </c>
@@ -7355,14 +7356,17 @@
       <c r="BA18" t="s">
         <v>56</v>
       </c>
-      <c r="BB18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC18" s="4" t="s">
-        <v>56</v>
+      <c r="BB18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC18" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>131</v>
       </c>
@@ -7519,14 +7523,17 @@
       <c r="BA19" t="s">
         <v>56</v>
       </c>
-      <c r="BB19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC19" s="4" t="s">
-        <v>56</v>
+      <c r="BB19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC19" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>132</v>
       </c>
@@ -7683,14 +7690,17 @@
       <c r="BA20" t="s">
         <v>56</v>
       </c>
-      <c r="BB20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC20" s="4" t="s">
-        <v>56</v>
+      <c r="BB20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC20" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>133</v>
       </c>
@@ -7847,179 +7857,15 @@
       <c r="BA21" t="s">
         <v>56</v>
       </c>
-      <c r="BB21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC21" s="4" t="s">
-        <v>56</v>
+      <c r="BB21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC21" s="6">
+        <v>2323</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" t="s">
-        <v>56</v>
-      </c>
-      <c r="P22" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" t="s">
-        <v>60</v>
-      </c>
-      <c r="U22" t="s">
-        <v>61</v>
-      </c>
-      <c r="V22" s="10">
-        <v>9838234567</v>
-      </c>
-      <c r="W22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC22" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
+      <c r="F22" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Downloads/web_framework_updated branch 16 march/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_framework_updated 20 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B97CD1-AE5B-454D-9748-BB3A7D52A3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED358F9A-765F-0D48-8F9B-22D17F59D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anonymous" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Authenticated" sheetId="2" r:id="rId3"/>
+    <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
+    <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId2"/>
+    <sheet name="Budget NZ Anonymous" sheetId="4" r:id="rId3"/>
+    <sheet name="Authenticated" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="141">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -430,6 +431,21 @@
   </si>
   <si>
     <t>YUL</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Domestic_Anonymous_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Inbound_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Outbound_PayLater_NZ</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Domestic_PayNow_NZ</t>
   </si>
 </sst>
 </file>
@@ -440,12 +456,19 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,39 +534,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,7 +962,7 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AH1" t="s">
@@ -1007,7 +1033,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1172,8 +1200,10 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
@@ -1337,7 +1367,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1502,7 +1534,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1667,7 +1701,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1832,7 +1868,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -1997,7 +2035,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2162,7 +2202,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2327,7 +2369,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2492,7 +2536,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2657,7 +2703,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2822,7 +2870,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -2987,7 +3037,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3152,7 +3204,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3317,7 +3371,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3482,7 +3538,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3647,7 +3705,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3812,7 +3872,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -3977,7 +4039,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4142,7 +4206,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4347,8 +4413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4525,9 +4591,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4692,9 +4756,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
@@ -4859,9 +4921,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -5026,9 +5086,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5119,7 +5177,7 @@
       <c r="AE5" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="AG5" s="3">
@@ -5193,9 +5251,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
@@ -5360,9 +5416,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
@@ -5527,9 +5581,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5694,9 +5746,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -5861,9 +5911,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6028,9 +6076,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
@@ -6195,9 +6241,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
@@ -6362,9 +6406,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
@@ -6529,9 +6571,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -6696,9 +6736,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -6863,9 +6901,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>129</v>
       </c>
@@ -7030,9 +7066,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
@@ -7197,9 +7231,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>117</v>
       </c>
@@ -7364,9 +7396,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>131</v>
       </c>
@@ -7531,9 +7561,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>132</v>
       </c>
@@ -7698,9 +7726,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>133</v>
       </c>
@@ -7876,6 +7902,693 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8901E-2144-8541-8BFC-719A0D3FE47B}">
+  <dimension ref="A1:BC5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="11">
+        <v>9840000000</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC3" s="6">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="10">
+        <v>9838234567</v>
+      </c>
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_framework_updated 20 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED358F9A-765F-0D48-8F9B-22D17F59D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847CA06-8A15-2C40-8DBE-BA5716F50873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="141">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BC21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8412,9 +8412,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>139</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_framework_updated 20 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847CA06-8A15-2C40-8DBE-BA5716F50873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02162CA-11F3-2948-8898-FEDC13B6E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4414,7 +4414,7 @@
   <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/web_framework_updated 20 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02162CA-11F3-2948-8898-FEDC13B6E402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C13A5-1EFB-E144-94B9-2B350BEC5697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -848,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
@@ -1033,9 +1033,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1200,9 +1198,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
@@ -1367,9 +1363,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -1534,9 +1528,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1701,9 +1693,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1868,9 +1858,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -2035,9 +2023,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -2202,9 +2188,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2369,9 +2353,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>84</v>
       </c>
@@ -2536,9 +2518,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2703,9 +2683,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>89</v>
       </c>
@@ -2870,9 +2848,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -3037,9 +3013,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -3204,9 +3178,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>93</v>
       </c>
@@ -3371,9 +3343,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>97</v>
       </c>
@@ -3538,9 +3508,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>98</v>
       </c>
@@ -3705,9 +3673,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -3872,9 +3838,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>100</v>
       </c>
@@ -4039,9 +4003,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>105</v>
       </c>
@@ -4206,9 +4168,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>98</v>
       </c>
@@ -4413,8 +4373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8B337-C646-F645-8F2E-76CD5765FF7A}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4591,7 +4551,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
@@ -4756,7 +4718,9 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
@@ -4921,7 +4885,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -5086,7 +5052,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>122</v>
       </c>
@@ -5251,7 +5219,9 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
@@ -5416,7 +5386,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
@@ -5581,7 +5553,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>121</v>
       </c>
@@ -5746,7 +5720,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -5911,7 +5887,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
@@ -6076,7 +6054,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
@@ -6241,7 +6221,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>125</v>
       </c>
@@ -6406,7 +6388,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>126</v>
       </c>
@@ -6571,7 +6555,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -6736,7 +6722,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -6901,7 +6889,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>129</v>
       </c>
@@ -7066,7 +7056,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
@@ -7231,7 +7223,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>117</v>
       </c>
@@ -7396,7 +7390,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>131</v>
       </c>
@@ -7561,7 +7557,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>132</v>
       </c>
@@ -7726,7 +7724,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>133</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -448,11 +448,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -483,24 +483,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,40 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,16 +542,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,8 +573,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,9 +619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,13 +642,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,31 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +726,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,103 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,39 +833,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,6 +875,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -923,13 +910,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,16 +938,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,134 +956,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,11 +1094,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1108,8 +1108,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,7 +1433,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -4115,7 +4114,7 @@
       <c r="BA16" t="s">
         <v>58</v>
       </c>
-      <c r="BB16" s="11" t="s">
+      <c r="BB16" s="10" t="s">
         <v>102</v>
       </c>
       <c r="BC16">
@@ -5000,13 +4999,13 @@
   <sheetPr/>
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="81.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5236,7 +5235,7 @@
       <c r="T2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" t="s">
         <v>63</v>
       </c>
       <c r="V2" s="5">
@@ -5342,8 +5341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
-      <c r="A3" s="3"/>
+    <row r="3" spans="2:55">
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -5566,7 +5564,7 @@
       <c r="T4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" t="s">
         <v>63</v>
       </c>
       <c r="V4" s="5">
@@ -5953,7 +5951,7 @@
       <c r="AM6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" s="10" t="s">
+      <c r="AN6" t="s">
         <v>90</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -5995,7 +5993,7 @@
       <c r="BA6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BB6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="BC6">
@@ -7810,7 +7808,7 @@
       <c r="BA17" t="s">
         <v>58</v>
       </c>
-      <c r="BB17" s="11" t="s">
+      <c r="BB17" s="10" t="s">
         <v>102</v>
       </c>
       <c r="BC17">
@@ -8481,9 +8479,6 @@
       <c r="F22" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AN6" r:id="rId1" display="test@microsoft.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -8495,7 +8490,7 @@
   <dimension ref="A1:BC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -8670,8 +8665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:55">
-      <c r="A2" s="1"/>
+    <row r="2" spans="2:55">
       <c r="B2" t="s">
         <v>133</v>
       </c>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -334,7 +334,7 @@
     <t>Budget_RES_G_typeCoupon__SMSCheckbox_IATA_PayLater_US</t>
   </si>
   <si>
-    <t>Budget_RES _Digital wallet Uplift _Direct_modify flow_US</t>
+    <t>Budget_RES _Digital_wallet_Uplift_Direct_modify_flow_US</t>
   </si>
   <si>
     <t>Budget_RES_Misc_Step1_2_Step4 _ErrorMsg_Validation_US</t>
@@ -450,12 +450,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -498,60 +498,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,8 +515,83 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,26 +605,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,16 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,14 +636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +693,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,19 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,115 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,22 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,21 +870,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -919,17 +899,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,153 +916,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,11 +1103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:BC21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="142">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -340,16 +340,16 @@
     <t>Budget_RES_Misc_Step1_2_Step4 _ErrorMsg_Validation_US</t>
   </si>
   <si>
+    <t>Budget_RES_Incognito_PayLater_CA</t>
+  </si>
+  <si>
+    <t>YYZ</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>AnonymousUserTestCases</t>
-  </si>
-  <si>
-    <t>Budget_RES_Incognito_PayLater_CA</t>
-  </si>
-  <si>
-    <t>YYZ</t>
-  </si>
-  <si>
-    <t>Canada</t>
   </si>
   <si>
     <t>Budget_RES_Modify_cancel_flow_Step1_to_Step4_CA</t>
@@ -450,12 +450,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -498,16 +498,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,29 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -559,8 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,14 +591,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -636,7 +628,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +687,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +735,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,139 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,21 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -869,13 +854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,16 +909,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,153 +931,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,11 +1103,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="A1:BC21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -4972,7 +4972,7 @@
   <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A15" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -5149,11 +5149,9 @@
       </c>
     </row>
     <row r="2" spans="1:55">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>56</v>
@@ -5165,10 +5163,10 @@
         <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>57</v>
@@ -5317,7 +5315,7 @@
     </row>
     <row r="3" spans="1:55">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>111</v>
@@ -5332,10 +5330,10 @@
         <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>64</v>
@@ -5483,9 +5481,7 @@
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>114</v>
       </c>
@@ -5499,10 +5495,10 @@
         <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>64</v>
@@ -5650,9 +5646,7 @@
       </c>
     </row>
     <row r="5" spans="1:55">
-      <c r="A5" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
@@ -5669,7 +5663,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>64</v>
@@ -5818,7 +5812,7 @@
     </row>
     <row r="6" ht="15" spans="1:55">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>116</v>
@@ -5836,7 +5830,7 @@
         <v>117</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>57</v>
@@ -5984,9 +5978,7 @@
       </c>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>118</v>
       </c>
@@ -6003,7 +5995,7 @@
         <v>117</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>64</v>
@@ -6151,9 +6143,7 @@
       </c>
     </row>
     <row r="8" spans="1:55">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>119</v>
       </c>
@@ -6170,7 +6160,7 @@
         <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>64</v>
@@ -6318,9 +6308,7 @@
       </c>
     </row>
     <row r="9" spans="1:55">
-      <c r="A9" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
@@ -6334,10 +6322,10 @@
         <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>57</v>
@@ -6485,9 +6473,7 @@
       </c>
     </row>
     <row r="10" spans="1:55">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
@@ -6653,7 +6639,7 @@
     </row>
     <row r="11" spans="1:55">
       <c r="A11" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>124</v>
@@ -6820,7 +6806,7 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>125</v>
@@ -6986,9 +6972,7 @@
       </c>
     </row>
     <row r="13" spans="1:55">
-      <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>126</v>
       </c>
@@ -7002,7 +6986,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -7153,9 +7137,7 @@
       </c>
     </row>
     <row r="14" spans="1:55">
-      <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>127</v>
       </c>
@@ -7320,9 +7302,7 @@
       </c>
     </row>
     <row r="15" spans="1:55">
-      <c r="A15" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>128</v>
       </c>
@@ -7336,7 +7316,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -7487,9 +7467,7 @@
       </c>
     </row>
     <row r="16" spans="1:55">
-      <c r="A16" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>129</v>
       </c>
@@ -7654,9 +7632,7 @@
       </c>
     </row>
     <row r="17" ht="15" spans="1:55">
-      <c r="A17" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>130</v>
       </c>
@@ -7670,7 +7646,7 @@
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -7821,9 +7797,7 @@
       </c>
     </row>
     <row r="18" spans="1:55">
-      <c r="A18" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>122</v>
       </c>
@@ -7989,7 +7963,7 @@
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>131</v>
@@ -8004,7 +7978,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
@@ -8156,7 +8130,7 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>132</v>
@@ -8323,7 +8297,7 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>133</v>
@@ -8338,7 +8312,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" t="s">
         <v>57</v>

--- a/budget-web-tests/testData/Anonymous.xlsx
+++ b/budget-web-tests/testData/Anonymous.xlsx
@@ -450,11 +450,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="25">
@@ -481,6 +481,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -493,9 +499,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,7 +529,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,9 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,38 +606,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,21 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -614,29 +636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,78 +648,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -735,7 +663,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +771,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,25 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +842,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -869,26 +908,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,37 +934,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,148 +947,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,21 +1103,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A2" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -1629,7 +1629,7 @@
       </c>
     </row>
     <row r="2" spans="1:55">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="3" spans="1:55">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1963,7 +1963,7 @@
       </c>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="5" spans="1:55">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
@@ -2226,7 +2226,7 @@
       <c r="AF5" t="s">
         <v>76</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="10">
         <v>112000000000</v>
       </c>
       <c r="AH5" t="s">
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="6" spans="1:55">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
@@ -2363,7 +2363,7 @@
       <c r="V6" s="4">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="10">
         <v>342000000000000</v>
       </c>
       <c r="X6">
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="7" spans="1:55">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
@@ -2530,7 +2530,7 @@
       <c r="V7" s="4">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="10">
         <v>342000000000000</v>
       </c>
       <c r="X7">
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="8" spans="1:55">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B8" t="s">
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="9" spans="1:55">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
@@ -2965,7 +2965,7 @@
       </c>
     </row>
     <row r="10" spans="1:55">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="11" spans="1:55">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
@@ -3299,7 +3299,7 @@
       </c>
     </row>
     <row r="12" spans="1:55">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3395,7 +3395,7 @@
       <c r="AF12" t="s">
         <v>76</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="10">
         <v>112000000000</v>
       </c>
       <c r="AH12" t="s">
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="13" spans="1:55">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" t="s">
@@ -3633,7 +3633,7 @@
       </c>
     </row>
     <row r="14" spans="1:55">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
@@ -3800,7 +3800,7 @@
       </c>
     </row>
     <row r="15" spans="1:55">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B15" t="s">
@@ -3821,7 +3821,7 @@
       <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>97</v>
       </c>
       <c r="I15" t="s">
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="16" ht="15" spans="1:55">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4126,7 +4126,7 @@
       <c r="BA16" t="s">
         <v>58</v>
       </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BB16" s="11" t="s">
         <v>102</v>
       </c>
       <c r="BC16">
@@ -4134,7 +4134,7 @@
       </c>
     </row>
     <row r="17" spans="1:55">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
@@ -4301,7 +4301,7 @@
       </c>
     </row>
     <row r="18" spans="1:55">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
@@ -4337,7 +4337,7 @@
       <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="8" t="s">
         <v>105</v>
       </c>
       <c r="N18" t="s">
@@ -4468,7 +4468,7 @@
       </c>
     </row>
     <row r="19" spans="1:55">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="20" spans="1:55">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4802,7 +4802,7 @@
       </c>
     </row>
     <row r="21" spans="1:55">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -5012,7 +5012,7 @@
   <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -5778,7 +5778,7 @@
       <c r="AF5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="10">
         <v>112000000000</v>
       </c>
       <c r="AH5" t="s">
@@ -5913,7 +5913,7 @@
       <c r="V6" s="5">
         <v>9840000000</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="9">
         <v>342000000000000</v>
       </c>
       <c r="X6" s="3">
@@ -6006,7 +6006,7 @@
       <c r="BA6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BB6" s="10" t="s">
+      <c r="BB6" s="11" t="s">
         <v>102</v>
       </c>
       <c r="BC6">
@@ -6078,7 +6078,7 @@
       <c r="V7" s="5">
         <v>9840000000</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="9">
         <v>342000000000000</v>
       </c>
       <c r="X7" s="3">
@@ -6344,7 +6344,7 @@
       </c>
     </row>
     <row r="9" spans="1:55">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>122</v>
       </c>
@@ -7098,7 +7098,7 @@
       <c r="AF13" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AG13" s="10">
         <v>112000000000</v>
       </c>
       <c r="AH13" t="s">
@@ -7518,7 +7518,7 @@
       <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="I16" t="s">
@@ -7821,7 +7821,7 @@
       <c r="BA17" t="s">
         <v>58</v>
       </c>
-      <c r="BB17" s="10" t="s">
+      <c r="BB17" s="11" t="s">
         <v>102</v>
       </c>
       <c r="BC17">
@@ -8028,7 +8028,7 @@
       <c r="L19" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>105</v>
       </c>
       <c r="N19" t="s">
